--- a/export/GHS Tracking Dashboard - Data Reporting Template.xlsx
+++ b/export/GHS Tracking Dashboard - Data Reporting Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanmaele\Google Drive\canyonlands-scratch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanmaele\Documents\GitHub\ghsa-network-analysis\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data template" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>Transaction Amount</t>
   </si>
@@ -260,9 +260,6 @@
     </r>
   </si>
   <si>
-    <t>Non-government</t>
-  </si>
-  <si>
     <t>Brief project description</t>
   </si>
   <si>
@@ -270,38 +267,6 @@
   </si>
   <si>
     <t>General IHR Implementation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Government funder?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(choose one)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Government recipient?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(choose one)</t>
-    </r>
   </si>
   <si>
     <t>Transactions</t>
@@ -529,21 +494,73 @@
 If a project has more than one recipient (such as two country governments), then a separate project should be included for each of the recipients, specifying the funds committed separately to each recipient.</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether the funder is a government or non-government organization, or a multilateral organization. </t>
-  </si>
-  <si>
     <t>Global health security project funding data may be submitted to the GHS Tracking Dashboard using the template below. Please submit completed templates online at http://tracking.ghscosting.org/#submit. Additional information on each field is available in the "Legend" tab.
 Please note that projects that have both committed and disbursed funds will require more than one row of data in this template, with one row corresponding to committed funds and one or more rows corresponding to disbursed funds. This is due to the fact that single projects or funding initiatives frequenly have multiple disbursements that occur over a period of time. If there is more than one disbursement to report for a single project, please duplicate the project's rows and include any additional disbursement information in the far-right columns. When reporting data, please include project, funder, and recipient information for each project you would like to submit for inclusion. 
 You may keep the example projects listed in this spreadsheet as guides for data entry, or may delete them for the sake of clarity. Example projects 1 and 2 in this template will not be included in any data updates made to the tracking dashboard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether the recipient is a government or non-government organization, or a multilateral organization. </t>
+    <t>GHS Tracking Dashboard - Data Reporting Template</t>
   </si>
   <si>
-    <t>Multilateral organization</t>
+    <t>Philanthropy</t>
   </si>
   <si>
-    <t>GHS Tracking Dashboard - Data Reporting Template</t>
+    <t>Private Sector</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Whether the funder is a government, philanthropic, or private sector sector organization, or another type of group or organization ("other")</t>
+  </si>
+  <si>
+    <t>Recipient type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Funder type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(choose one)</t>
+    </r>
+  </si>
+  <si>
+    <t>Whether the recipient is a government, philanthropic, or private sector sector organization, or another type of group or organization ("other")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose one from dropdown:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Government
+Philanthropy
+Private Sector
+Other</t>
+    </r>
   </si>
   <si>
     <r>
@@ -559,8 +576,25 @@
         <scheme val="minor"/>
       </rPr>
       <t>Government
-Multilateral organization
-Non-government</t>
+Philanthropy
+Private Sector
+Other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recipient type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(choose one)</t>
     </r>
   </si>
 </sst>
@@ -1049,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="sectors" displayName="sectors" ref="C3:C6" totalsRowShown="0">
-  <autoFilter ref="C3:C6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="sectors" displayName="sectors" ref="C3:C7" totalsRowShown="0">
+  <autoFilter ref="C3:C7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sectors"/>
   </tableColumns>
@@ -1385,7 +1419,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1405,7 +1439,7 @@
     </row>
     <row r="2" spans="1:16" ht="260.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1442,7 +1476,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="43"/>
       <c r="L3" s="41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
@@ -1454,10 +1488,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>38</v>
@@ -1469,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>47</v>
@@ -1478,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>48</v>
@@ -1487,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>0</v>
@@ -1496,7 +1530,7 @@
         <v>44</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1538,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1516,22 +1550,22 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>1</v>
@@ -1554,7 +1588,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -1566,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>2</v>
@@ -1599,10 +1633,10 @@
     </row>
     <row r="7" spans="1:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>20</v>
@@ -1612,22 +1646,22 @@
         <v>25</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>1</v>
@@ -1642,15 +1676,15 @@
         <v>3</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -1660,22 +1694,22 @@
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>2</v>
@@ -1693,10 +1727,10 @@
     </row>
     <row r="9" spans="1:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1706,22 +1740,22 @@
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
@@ -28605,7 +28639,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Do not edit - Column values'!$B$4:$B$9</xm:f>
@@ -28620,21 +28654,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'Do not edit - Column values'!$C$4:$C$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>J5:J1501</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
             <xm:f>'Do not edit - Column values'!$D$4:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>L5:L1501</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>'Do not edit - Column values'!$C$4:$C$6</xm:f>
+            <xm:f>'Do not edit - Column values'!$C$4:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G1501</xm:sqref>
+          <xm:sqref>G5:G1501 J5:J1501</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28703,7 +28731,7 @@
       <c r="K2" s="42"/>
       <c r="L2" s="43"/>
       <c r="M2" s="41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" s="42"/>
       <c r="O2" s="42"/>
@@ -28712,16 +28740,16 @@
     </row>
     <row r="3" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -28733,7 +28761,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>47</v>
@@ -28742,7 +28770,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>48</v>
@@ -28751,7 +28779,7 @@
         <v>37</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>0</v>
@@ -28760,124 +28788,124 @@
         <v>44</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="24" customFormat="1" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="24" customFormat="1" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>69</v>
+      <c r="G4" s="23" t="s">
+        <v>70</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>89</v>
+      <c r="H4" s="22" t="s">
+        <v>100</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>90</v>
+      <c r="I4" s="23" t="s">
+        <v>71</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="J4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="Q4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>97</v>
+    </row>
+    <row r="5" spans="1:17" s="24" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>67</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>100</v>
+      <c r="B5" s="21" t="s">
+        <v>76</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>91</v>
+      <c r="C5" s="21" t="s">
+        <v>77</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>94</v>
+      <c r="E5" s="22" t="s">
+        <v>78</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>75</v>
+      <c r="F5" s="22" t="s">
+        <v>79</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>77</v>
+      <c r="H5" s="37" t="s">
+        <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="24" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>70</v>
+      <c r="I5" s="22" t="s">
+        <v>76</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>79</v>
+      <c r="J5" s="22" t="s">
+        <v>76</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="K5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="N5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="P5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="Q5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="6" spans="1:17" s="24" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>15</v>
@@ -28889,22 +28917,22 @@
         <v>29</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>1</v>
@@ -28985,7 +29013,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -29024,7 +29052,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -29038,7 +29066,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -29048,6 +29076,9 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -29132,7 +29163,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/export/GHS Tracking Dashboard - Data Reporting Template.xlsx
+++ b/export/GHS Tracking Dashboard - Data Reporting Template.xlsx
@@ -1696,7 +1696,7 @@
       <c r="N6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="13" t="s">
         <v>92</v>
       </c>
       <c r="P6" s="13">
